--- a/results/mp/logistic/corona/confidence/168/0.2/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/168/0.2/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="89">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,45 +40,48 @@
     <t>name</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>kill</t>
+  </si>
+  <si>
     <t>forced</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>kill</t>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>fraud</t>
   </si>
   <si>
     <t>died</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>crude</t>
-  </si>
-  <si>
     <t>war</t>
   </si>
   <si>
+    <t>collapse</t>
+  </si>
+  <si>
     <t>die</t>
   </si>
   <si>
-    <t>collapse</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
     <t>panic</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
     <t>emergency</t>
   </si>
   <si>
@@ -94,190 +97,190 @@
     <t>stop</t>
   </si>
   <si>
-    <t>demand</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
     <t>of</t>
   </si>
   <si>
+    <t>co</t>
+  </si>
+  <si>
     <t>19</t>
   </si>
   <si>
-    <t>co</t>
+    <t>the</t>
+  </si>
+  <si>
+    <t>corona</t>
   </si>
   <si>
     <t>to</t>
   </si>
   <si>
-    <t>the</t>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>funny</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>,</t>
   </si>
   <si>
     <t>.</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>wow</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>you</t>
-  </si>
-  <si>
-    <t>for</t>
-  </si>
-  <si>
-    <t>and</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>corona</t>
   </si>
 </sst>
 </file>
@@ -635,7 +638,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q57"/>
+  <dimension ref="A1:Q59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -643,10 +646,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -704,13 +707,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7586206896551724</v>
+        <v>0.7397260273972602</v>
       </c>
       <c r="C3">
-        <v>22</v>
+        <v>216</v>
       </c>
       <c r="D3">
-        <v>22</v>
+        <v>216</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -722,10 +725,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7</v>
+        <v>76</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K3">
         <v>0.9347826086956522</v>
@@ -754,13 +757,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7431506849315068</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C4">
-        <v>217</v>
+        <v>14</v>
       </c>
       <c r="D4">
-        <v>217</v>
+        <v>14</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -772,19 +775,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>75</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K4">
-        <v>0.9152542372881356</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="L4">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="M4">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -796,7 +799,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -804,13 +807,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7368421052631579</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="C5">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D5">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -822,19 +825,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K5">
-        <v>0.8947368421052632</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L5">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="M5">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -846,7 +849,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -854,13 +857,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6538461538461539</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="C6">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D6">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -872,31 +875,31 @@
         <v>0</v>
       </c>
       <c r="H6">
+        <v>11</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K6">
+        <v>0.925</v>
+      </c>
+      <c r="L6">
+        <v>111</v>
+      </c>
+      <c r="M6">
+        <v>111</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6">
         <v>9</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="K6">
-        <v>0.8833333333333333</v>
-      </c>
-      <c r="L6">
-        <v>106</v>
-      </c>
-      <c r="M6">
-        <v>106</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -904,13 +907,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.5555555555555556</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="C7">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -922,19 +925,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K7">
-        <v>0.8666666666666667</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L7">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="M7">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -954,13 +957,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C8">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D8">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -972,19 +975,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K8">
-        <v>0.8392857142857143</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L8">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="M8">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -996,7 +999,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1004,13 +1007,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.4736842105263158</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C9">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D9">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1022,19 +1025,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K9">
-        <v>0.8333333333333334</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L9">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="M9">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1046,7 +1049,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1054,13 +1057,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.4594594594594595</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="C10">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D10">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1072,19 +1075,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K10">
-        <v>0.8198433420365535</v>
+        <v>0.8172323759791122</v>
       </c>
       <c r="L10">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="M10">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1096,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1104,13 +1107,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.4333333333333333</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="C11">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D11">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1122,19 +1125,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K11">
-        <v>0.8113207547169812</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L11">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="M11">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1146,7 +1149,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>20</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1154,13 +1157,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.4285714285714285</v>
+        <v>0.4594594594594595</v>
       </c>
       <c r="C12">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="D12">
-        <v>81</v>
+        <v>17</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1172,19 +1175,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K12">
-        <v>0.8103448275862069</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L12">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="M12">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1196,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1204,13 +1207,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.3779069767441861</v>
+        <v>0.4338624338624338</v>
       </c>
       <c r="C13">
-        <v>195</v>
+        <v>82</v>
       </c>
       <c r="D13">
-        <v>195</v>
+        <v>82</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1222,19 +1225,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>321</v>
+        <v>107</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K13">
-        <v>0.8048780487804879</v>
+        <v>0.7926829268292683</v>
       </c>
       <c r="L13">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M13">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1246,7 +1249,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1254,13 +1257,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.3529411764705883</v>
+        <v>0.3898305084745763</v>
       </c>
       <c r="C14">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D14">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1272,19 +1275,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K14">
-        <v>0.78125</v>
+        <v>0.7830188679245284</v>
       </c>
       <c r="L14">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="M14">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1296,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1304,7 +1307,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.3220338983050847</v>
+        <v>0.3725490196078431</v>
       </c>
       <c r="C15">
         <v>19</v>
@@ -1322,19 +1325,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K15">
-        <v>0.78125</v>
+        <v>0.7816901408450704</v>
       </c>
       <c r="L15">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="M15">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1346,7 +1349,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1354,13 +1357,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.24</v>
+        <v>0.3527131782945737</v>
       </c>
       <c r="C16">
-        <v>18</v>
+        <v>182</v>
       </c>
       <c r="D16">
-        <v>18</v>
+        <v>182</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1372,19 +1375,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>57</v>
+        <v>334</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K16">
-        <v>0.7777777777777778</v>
+        <v>0.7734375</v>
       </c>
       <c r="L16">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="M16">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1396,7 +1399,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>4</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1404,13 +1407,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.2363636363636364</v>
+        <v>0.28</v>
       </c>
       <c r="C17">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D17">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1422,19 +1425,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K17">
-        <v>0.7692307692307693</v>
+        <v>0.76875</v>
       </c>
       <c r="L17">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="M17">
-        <v>20</v>
+        <v>123</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1446,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>6</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1454,13 +1457,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.1946308724832215</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="C18">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D18">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1472,10 +1475,10 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K18">
         <v>0.7575757575757576</v>
@@ -1504,13 +1507,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.1361111111111111</v>
+        <v>0.2281879194630873</v>
       </c>
       <c r="C19">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="D19">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1522,19 +1525,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>311</v>
+        <v>115</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K19">
-        <v>0.75</v>
+        <v>0.7435897435897436</v>
       </c>
       <c r="L19">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M19">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1546,7 +1549,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1554,38 +1557,38 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.06349206349206349</v>
+        <v>0.1472222222222222</v>
       </c>
       <c r="C20">
+        <v>53</v>
+      </c>
+      <c r="D20">
+        <v>53</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>307</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="K20">
+        <v>0.7272727272727273</v>
+      </c>
+      <c r="L20">
         <v>16</v>
       </c>
-      <c r="D20">
+      <c r="M20">
         <v>16</v>
       </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>236</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K20">
-        <v>0.75</v>
-      </c>
-      <c r="L20">
-        <v>36</v>
-      </c>
-      <c r="M20">
-        <v>36</v>
-      </c>
       <c r="N20">
         <v>1</v>
       </c>
@@ -1596,7 +1599,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1604,49 +1607,49 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.03485254691689008</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C21">
+        <v>21</v>
+      </c>
+      <c r="D21">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>231</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K21">
+        <v>0.723404255319149</v>
+      </c>
+      <c r="L21">
+        <v>34</v>
+      </c>
+      <c r="M21">
+        <v>34</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
         <v>13</v>
-      </c>
-      <c r="D21">
-        <v>13</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>360</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K21">
-        <v>0.7435897435897436</v>
-      </c>
-      <c r="L21">
-        <v>29</v>
-      </c>
-      <c r="M21">
-        <v>29</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1654,37 +1657,37 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.006956521739130435</v>
+        <v>0.007172995780590718</v>
       </c>
       <c r="C22">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D22">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E22">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="F22">
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
       </c>
       <c r="H22">
-        <v>2284</v>
+        <v>2353</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K22">
-        <v>0.7394366197183099</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L22">
-        <v>105</v>
+        <v>26</v>
       </c>
       <c r="M22">
-        <v>105</v>
+        <v>26</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1696,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>37</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1704,37 +1707,37 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.006736842105263158</v>
+        <v>0.00643915003219575</v>
       </c>
       <c r="C23">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D23">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E23">
-        <v>0.2</v>
+        <v>0.05</v>
       </c>
       <c r="F23">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
       </c>
       <c r="H23">
-        <v>2359</v>
+        <v>3086</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K23">
-        <v>0.7368421052631579</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L23">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M23">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1754,49 +1757,49 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.006548175865294668</v>
+        <v>0.00608044901777362</v>
       </c>
       <c r="C24">
+        <v>13</v>
+      </c>
+      <c r="D24">
+        <v>18</v>
+      </c>
+      <c r="E24">
+        <v>0.28</v>
+      </c>
+      <c r="F24">
+        <v>0.72</v>
+      </c>
+      <c r="G24" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <v>2125</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K24">
+        <v>0.7083333333333334</v>
+      </c>
+      <c r="L24">
+        <v>34</v>
+      </c>
+      <c r="M24">
+        <v>34</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
         <v>14</v>
-      </c>
-      <c r="D24">
-        <v>19</v>
-      </c>
-      <c r="E24">
-        <v>0.26</v>
-      </c>
-      <c r="F24">
-        <v>0.74</v>
-      </c>
-      <c r="G24" t="b">
-        <v>1</v>
-      </c>
-      <c r="H24">
-        <v>2124</v>
-      </c>
-      <c r="J24" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K24">
-        <v>0.7272727272727273</v>
-      </c>
-      <c r="L24">
-        <v>16</v>
-      </c>
-      <c r="M24">
-        <v>16</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1804,37 +1807,37 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.006445375443119562</v>
+        <v>0.005634350106858364</v>
       </c>
       <c r="C25">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D25">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="E25">
-        <v>0.17</v>
+        <v>0.38</v>
       </c>
       <c r="F25">
-        <v>0.83</v>
+        <v>0.62</v>
       </c>
       <c r="G25" t="b">
         <v>1</v>
       </c>
       <c r="H25">
-        <v>3083</v>
+        <v>5118</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K25">
-        <v>0.723404255319149</v>
+        <v>0.6976744186046512</v>
       </c>
       <c r="L25">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="M25">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1854,37 +1857,37 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.004402224281742354</v>
+        <v>0.004075235109717868</v>
       </c>
       <c r="C26">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="D26">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E26">
-        <v>0.39</v>
+        <v>0.46</v>
       </c>
       <c r="F26">
-        <v>0.61</v>
+        <v>0.54</v>
       </c>
       <c r="G26" t="b">
         <v>1</v>
       </c>
       <c r="H26">
-        <v>4297</v>
+        <v>3177</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K26">
-        <v>0.7037037037037037</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="L26">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M26">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1896,7 +1899,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1904,87 +1907,63 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.004276827371695179</v>
+        <v>0.003248259860788863</v>
       </c>
       <c r="C27">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D27">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="E27">
-        <v>0.49</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="F27">
-        <v>0.51</v>
+        <v>0.4399999999999999</v>
       </c>
       <c r="G27" t="b">
         <v>1</v>
       </c>
       <c r="H27">
-        <v>5122</v>
+        <v>4296</v>
       </c>
       <c r="J27" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K27">
+        <v>0.6785714285714286</v>
+      </c>
+      <c r="L27">
+        <v>19</v>
+      </c>
+      <c r="M27">
+        <v>19</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="J28" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="K27">
-        <v>0.6825396825396826</v>
-      </c>
-      <c r="L27">
-        <v>43</v>
-      </c>
-      <c r="M27">
-        <v>43</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="A28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B28">
-        <v>0.002614641995172969</v>
-      </c>
-      <c r="C28">
-        <v>13</v>
-      </c>
-      <c r="D28">
-        <v>37</v>
-      </c>
-      <c r="E28">
-        <v>0.65</v>
-      </c>
-      <c r="F28">
-        <v>0.35</v>
-      </c>
-      <c r="G28" t="b">
-        <v>1</v>
-      </c>
-      <c r="H28">
-        <v>4959</v>
-      </c>
-      <c r="J28" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="K28">
-        <v>0.6571428571428571</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L28">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="M28">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1996,21 +1975,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K29">
-        <v>0.6441176470588236</v>
+        <v>0.66</v>
       </c>
       <c r="L29">
-        <v>219</v>
+        <v>33</v>
       </c>
       <c r="M29">
-        <v>219</v>
+        <v>33</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2022,21 +2001,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>121</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K30">
-        <v>0.6428571428571429</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="L30">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="M30">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2048,21 +2027,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K31">
-        <v>0.64</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="L31">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="M31">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2074,21 +2053,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K32">
-        <v>0.6363636363636364</v>
+        <v>0.6294117647058823</v>
       </c>
       <c r="L32">
-        <v>14</v>
+        <v>214</v>
       </c>
       <c r="M32">
-        <v>14</v>
+        <v>214</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2100,47 +2079,47 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>8</v>
+        <v>126</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K33">
         <v>0.625</v>
       </c>
       <c r="L33">
+        <v>25</v>
+      </c>
+      <c r="M33">
+        <v>25</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
         <v>15</v>
-      </c>
-      <c r="M33">
-        <v>15</v>
-      </c>
-      <c r="N33">
-        <v>1</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>9</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K34">
-        <v>0.606694560669456</v>
+        <v>0.625</v>
       </c>
       <c r="L34">
-        <v>145</v>
+        <v>15</v>
       </c>
       <c r="M34">
-        <v>145</v>
+        <v>15</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2152,47 +2131,47 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>94</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K35">
-        <v>0.6046511627906976</v>
+        <v>0.6</v>
       </c>
       <c r="L35">
+        <v>39</v>
+      </c>
+      <c r="M35">
+        <v>39</v>
+      </c>
+      <c r="N35">
+        <v>1</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q35">
         <v>26</v>
-      </c>
-      <c r="M35">
-        <v>26</v>
-      </c>
-      <c r="N35">
-        <v>1</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>17</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K36">
-        <v>0.6</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L36">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="M36">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2204,21 +2183,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K37">
-        <v>0.574468085106383</v>
+        <v>0.5690376569037657</v>
       </c>
       <c r="L37">
-        <v>54</v>
+        <v>136</v>
       </c>
       <c r="M37">
-        <v>54</v>
+        <v>136</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2230,21 +2209,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>40</v>
+        <v>103</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K38">
-        <v>0.5714285714285714</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="L38">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M38">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2256,12 +2235,12 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K39">
         <v>0.5652173913043478</v>
@@ -2287,16 +2266,16 @@
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K40">
-        <v>0.5428571428571428</v>
+        <v>0.559322033898305</v>
       </c>
       <c r="L40">
-        <v>38</v>
+        <v>165</v>
       </c>
       <c r="M40">
-        <v>38</v>
+        <v>165</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2308,21 +2287,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>32</v>
+        <v>130</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K41">
-        <v>0.5389830508474577</v>
+        <v>0.5425531914893617</v>
       </c>
       <c r="L41">
-        <v>159</v>
+        <v>51</v>
       </c>
       <c r="M41">
-        <v>159</v>
+        <v>51</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2334,21 +2313,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>136</v>
+        <v>43</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K42">
-        <v>0.5384615384615384</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="L42">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M42">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2360,47 +2339,47 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K43">
-        <v>0.5151515151515151</v>
+        <v>0.4848484848484849</v>
       </c>
       <c r="L43">
+        <v>16</v>
+      </c>
+      <c r="M43">
+        <v>16</v>
+      </c>
+      <c r="N43">
+        <v>1</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+      <c r="P43" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q43">
         <v>17</v>
-      </c>
-      <c r="M43">
-        <v>17</v>
-      </c>
-      <c r="N43">
-        <v>1</v>
-      </c>
-      <c r="O43">
-        <v>0</v>
-      </c>
-      <c r="P43" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q43">
-        <v>16</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K44">
-        <v>0.4831460674157304</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="L44">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="M44">
-        <v>43</v>
+        <v>13</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2412,21 +2391,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>46</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K45">
-        <v>0.4523809523809524</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="L45">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="M45">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2438,21 +2417,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K46">
-        <v>0.4313725490196079</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="L46">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M46">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2464,21 +2443,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K47">
-        <v>0.3287671232876712</v>
+        <v>0.4047619047619048</v>
       </c>
       <c r="L47">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="M47">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2490,21 +2469,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>49</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K48">
-        <v>0.2948717948717949</v>
+        <v>0.4044943820224719</v>
       </c>
       <c r="L48">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="M48">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2516,21 +2495,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K49">
-        <v>0.2888888888888889</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="L49">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="M49">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2542,21 +2521,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>32</v>
+        <v>51</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K50">
-        <v>0.21875</v>
+        <v>0.3013698630136986</v>
       </c>
       <c r="L50">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="M50">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2568,21 +2547,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K51">
-        <v>0.01833333333333333</v>
+        <v>0.288135593220339</v>
       </c>
       <c r="L51">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="M51">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2594,111 +2573,111 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>1178</v>
+        <v>42</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K52">
-        <v>0.01006922592825677</v>
+        <v>0.203125</v>
       </c>
       <c r="L52">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M52">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="N52">
-        <v>0.76</v>
+        <v>1</v>
       </c>
       <c r="O52">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="P52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q52">
-        <v>1573</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K53">
-        <v>0.007132132132132132</v>
+        <v>0.01751459549624687</v>
       </c>
       <c r="L53">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M53">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="N53">
-        <v>0.68</v>
+        <v>0.95</v>
       </c>
       <c r="O53">
-        <v>0.32</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P53" t="b">
         <v>1</v>
       </c>
       <c r="Q53">
-        <v>2645</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K54">
-        <v>0.006268282490597576</v>
+        <v>0.0119496855345912</v>
       </c>
       <c r="L54">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="M54">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="N54">
-        <v>0.9399999999999999</v>
+        <v>0.83</v>
       </c>
       <c r="O54">
-        <v>0.06000000000000005</v>
+        <v>0.17</v>
       </c>
       <c r="P54" t="b">
         <v>1</v>
       </c>
       <c r="Q54">
-        <v>2378</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="K55">
-        <v>0.00481637567730283</v>
+        <v>0.00900562851782364</v>
       </c>
       <c r="L55">
         <v>24</v>
       </c>
       <c r="M55">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="N55">
-        <v>0.65</v>
+        <v>0.75</v>
       </c>
       <c r="O55">
-        <v>0.35</v>
+        <v>0.25</v>
       </c>
       <c r="P55" t="b">
         <v>1</v>
       </c>
       <c r="Q55">
-        <v>4959</v>
+        <v>2641</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -2706,51 +2685,103 @@
         <v>87</v>
       </c>
       <c r="K56">
-        <v>0.004390090937597993</v>
+        <v>0.005744768157570784</v>
       </c>
       <c r="L56">
         <v>14</v>
       </c>
       <c r="M56">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="N56">
-        <v>0.54</v>
+        <v>0.64</v>
       </c>
       <c r="O56">
-        <v>0.46</v>
+        <v>0.36</v>
       </c>
       <c r="P56" t="b">
         <v>1</v>
       </c>
       <c r="Q56">
-        <v>3175</v>
+        <v>2423</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>32</v>
+        <v>88</v>
       </c>
       <c r="K57">
-        <v>0.00408321991055804</v>
+        <v>0.004212637913741223</v>
       </c>
       <c r="L57">
         <v>21</v>
       </c>
       <c r="M57">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="N57">
-        <v>0.49</v>
+        <v>0.66</v>
       </c>
       <c r="O57">
-        <v>0.51</v>
+        <v>0.34</v>
       </c>
       <c r="P57" t="b">
         <v>1</v>
       </c>
       <c r="Q57">
-        <v>5122</v>
+        <v>4964</v>
+      </c>
+    </row>
+    <row r="58" spans="10:17">
+      <c r="J58" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K58">
+        <v>0.004172461752433936</v>
+      </c>
+      <c r="L58">
+        <v>18</v>
+      </c>
+      <c r="M58">
+        <v>32</v>
+      </c>
+      <c r="N58">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="O58">
+        <v>0.4399999999999999</v>
+      </c>
+      <c r="P58" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q58">
+        <v>4296</v>
+      </c>
+    </row>
+    <row r="59" spans="10:17">
+      <c r="J59" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K59">
+        <v>0.003504672897196262</v>
+      </c>
+      <c r="L59">
+        <v>18</v>
+      </c>
+      <c r="M59">
+        <v>47</v>
+      </c>
+      <c r="N59">
+        <v>0.38</v>
+      </c>
+      <c r="O59">
+        <v>0.62</v>
+      </c>
+      <c r="P59" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q59">
+        <v>5118</v>
       </c>
     </row>
   </sheetData>
